--- a/verif_results/no_exact/datos_verificacion_sigmoid_1como7.xlsx
+++ b/verif_results/no_exact/datos_verificacion_sigmoid_1como7.xlsx
@@ -437,7 +437,7 @@
         </is>
       </c>
       <c r="E1" t="n">
-        <v>12.59115767478943</v>
+        <v>12.63471221923828</v>
       </c>
       <c r="F1" t="n">
         <v>1996</v>
@@ -461,7 +461,7 @@
         </is>
       </c>
       <c r="K1" t="n">
-        <v>10.196528673172</v>
+        <v>10.19381928443909</v>
       </c>
       <c r="L1" t="n">
         <v>1327</v>
@@ -496,7 +496,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>3.862670183181763</v>
+        <v>4.380025386810303</v>
       </c>
       <c r="F2" t="n">
         <v>61</v>
@@ -520,7 +520,7 @@
         </is>
       </c>
       <c r="K2" t="n">
-        <v>3.57206916809082</v>
+        <v>4.37265682220459</v>
       </c>
       <c r="L2" t="n">
         <v>72</v>
@@ -555,10 +555,10 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>15.52676749229431</v>
+        <v>38.31829214096069</v>
       </c>
       <c r="F3" t="n">
-        <v>8171</v>
+        <v>20986</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -579,10 +579,10 @@
         </is>
       </c>
       <c r="K3" t="n">
-        <v>15.51713109016418</v>
+        <v>36.34372520446777</v>
       </c>
       <c r="L3" t="n">
-        <v>7954</v>
+        <v>19268</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -614,13 +614,13 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>900.0014522075653</v>
+        <v>900.0008592605591</v>
       </c>
       <c r="F4" t="n">
-        <v>126529</v>
+        <v>188206</v>
       </c>
       <c r="G4" t="n">
-        <v>14.41013834119816</v>
+        <v>0.6194292493211602</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
@@ -638,13 +638,13 @@
         </is>
       </c>
       <c r="K4" t="n">
-        <v>900.0010817050934</v>
+        <v>527.2379441261292</v>
       </c>
       <c r="L4" t="n">
-        <v>131835</v>
+        <v>132901</v>
       </c>
       <c r="M4" t="n">
-        <v>4.665246591409547</v>
+        <v>0</v>
       </c>
       <c r="N4" t="inlineStr">
         <is>
@@ -653,7 +653,7 @@
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>optimal</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>0.0203101634979248</v>
+        <v>0.0201411247253418</v>
       </c>
       <c r="F5" t="n">
         <v>1</v>
@@ -697,7 +697,7 @@
         </is>
       </c>
       <c r="K5" t="n">
-        <v>3.533069610595703</v>
+        <v>3.542734861373901</v>
       </c>
       <c r="L5" t="n">
         <v>95</v>
@@ -732,7 +732,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>5.852077484130859</v>
+        <v>6.256586074829102</v>
       </c>
       <c r="F6" t="n">
         <v>1</v>
@@ -756,7 +756,7 @@
         </is>
       </c>
       <c r="K6" t="n">
-        <v>6.872718334197998</v>
+        <v>8.216521739959717</v>
       </c>
       <c r="L6" t="n">
         <v>104</v>
@@ -791,7 +791,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>0.03166317939758301</v>
+        <v>0.03380084037780762</v>
       </c>
       <c r="F7" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
         </is>
       </c>
       <c r="K7" t="n">
-        <v>0.03144001960754395</v>
+        <v>0.03384113311767578</v>
       </c>
       <c r="L7" t="n">
         <v>1</v>
@@ -850,7 +850,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>0.03113150596618652</v>
+        <v>0.03380131721496582</v>
       </c>
       <c r="F8" t="n">
         <v>1</v>
@@ -874,7 +874,7 @@
         </is>
       </c>
       <c r="K8" t="n">
-        <v>0.03098750114440918</v>
+        <v>0.03355073928833008</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -909,7 +909,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>1.826441049575806</v>
+        <v>1.610503673553467</v>
       </c>
       <c r="F9" t="n">
         <v>1</v>
@@ -933,7 +933,7 @@
         </is>
       </c>
       <c r="K9" t="n">
-        <v>1.809272527694702</v>
+        <v>1.721914052963257</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -968,17 +968,17 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.44567465782166</v>
+        <v>4.70630407333374</v>
       </c>
       <c r="F10" t="n">
-        <v>978</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Si</t>
+          <t>No</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -992,13 +992,13 @@
         </is>
       </c>
       <c r="K10" t="n">
-        <v>70.67169904708862</v>
+        <v>29.95529198646545</v>
       </c>
       <c r="L10" t="n">
-        <v>3019</v>
+        <v>955</v>
       </c>
       <c r="M10" t="n">
-        <v>0.06996877779241965</v>
+        <v>0.07700304860324975</v>
       </c>
       <c r="N10" t="inlineStr">
         <is>
@@ -1027,10 +1027,10 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2.521378517150879</v>
+        <v>2.051234245300293</v>
       </c>
       <c r="F11" t="n">
-        <v>206</v>
+        <v>146</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="K11" t="n">
-        <v>8.962270498275757</v>
+        <v>2.454460144042969</v>
       </c>
       <c r="L11" t="n">
-        <v>622</v>
+        <v>85</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
@@ -1086,13 +1086,13 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>900.0007772445679</v>
+        <v>556.0632271766663</v>
       </c>
       <c r="F12" t="n">
-        <v>3670</v>
+        <v>1523</v>
       </c>
       <c r="G12" t="n">
-        <v>107.1868566142002</v>
+        <v>197.1431364643102</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1101,7 +1101,7 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>timelimit</t>
+          <t>problem</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1110,13 +1110,13 @@
         </is>
       </c>
       <c r="K12" t="n">
-        <v>90.72259926795959</v>
+        <v>557.3777339458466</v>
       </c>
       <c r="L12" t="n">
-        <v>269</v>
+        <v>3328</v>
       </c>
       <c r="M12" t="n">
-        <v>98.98041097907429</v>
+        <v>99.40869871428929</v>
       </c>
       <c r="N12" t="inlineStr">
         <is>
